--- a/data/codes.xlsx
+++ b/data/codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinshih/Projects/us_bridges/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinshih/Projects/BridgeMap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C03FC-F35D-6949-88BA-F8F9762C6FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8638C4-9FF7-B941-A1B3-3C4AB65A8763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18520" yWindow="500" windowWidth="17320" windowHeight="21900" firstSheet="5" activeTab="13" xr2:uid="{FEB80FE5-CD1C-4D44-819D-EBDFA7D50CAC}"/>
+    <workbookView xWindow="18520" yWindow="500" windowWidth="17320" windowHeight="21900" xr2:uid="{FEB80FE5-CD1C-4D44-819D-EBDFA7D50CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="state code 1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="383">
   <si>
     <t>1 </t>
   </si>
@@ -1049,6 +1049,165 @@
   </si>
   <si>
     <t>Closed median with non-mountable barriers</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
 </sst>
 </file>
@@ -1413,491 +1572,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657EE62A-BECF-1942-957D-6F360B2E5E52}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>368</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>353</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>365</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>367</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>369</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>371</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>377</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>381</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2338,7 +2659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D47E3F9-B6AD-C043-BF67-6F3E1AAD380A}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2820,7 +3141,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
